--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5642" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7167" uniqueCount="1680">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -4157,6 +4157,912 @@
   </si>
   <si>
     <t>https://www.silhouettedesignstore.com/christmas-twinkles-on-red-bjq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pilgrim-raccoon-happy-thanksgiving-3dbox-card-1ie.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-twinkles-on-teal-twist-8ys.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pumpkin-checkered-pattern-e8t.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowy-holiday-town-printable-pattern-da5.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pumpkin-pie-slice-t2l.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/roast-turkey-fuv.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/seasons-greetings-wreath-ijm.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/turkey-time-phrase-in-turkey-silhouette-wnk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snow-covered-christmas-church-d4d.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snow-covered-christmas-church-hyg.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/door-hanger-birth-bow-light-box-axolotl-efx.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/door-hanger-birth-bow-light-box-cat-kvb.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/door-hanger-birth-bow-light-box-bear-wi9.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/her-royal-ness-birthday-card-with-crown-szk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/holly-branches-with-red-berries-ccc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-gingerbread-cookie-87y.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/floral-treble-clef-vd2.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/candy-cane-stripes-christmas-ornament-w72.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cozy-candle-on-a-plate-ukd.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/retro-handwritten-font-qsp.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/lighroom-script-font-i9m.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/malita-script-font-w00.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/squirrel-silhouette-with-fall-leaves-mni.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pumpkin-spice-latte-coffee-in-mug-qg6.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/santa-says-six-seven-xso.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-winter-penguin-d91.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-with-snowflakes-pattern-kn0.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/o-come-let-us-adore-him-baby-jesus-1ka.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-with-snowflake-and-stars-zgm.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-winter-snowman-with-scarf-9ht.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/end-bro-font-pcs.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/rindeya-script-font-ytz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/merry-christmas-chickens-uxh.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/rudolph-the-red-nose-reindeer-2ze.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/merry-cluckmas-c17.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-teddy-bear-xp7.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/have-yourself-a-merry-little-christmas-obk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/hot-dog-in-bun-one-a0n.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/hamburger-bun-fixings-one-dry.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/drink-can-one-cnv.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/wine-bottle-two-fog.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cooler-three-iqy.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/reindeer-with-mistletoe-6kc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/reindeer-with-mistletoe-qbc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/reindeer-with-mistletoe-skc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/reindeer-silhouette-5o3.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/reindeer-with-mistletoe-iqk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gingerbread-man-holiday-card-svg-cut-file-ijf.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/meet-me-here-mistletoe-door-corner-trim-28c.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/santa-ho-ho-ho-door-corner-trim-d8a.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowflake-gift-card-tag-svg-t2q.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/sparkly-diamonds-on-yellow-background-pattern-fsc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/winter-cardinal-trees-gift-card-tag-svg-p7y.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pink-sweaters-and-bows-christmas-seamless-pattern-3cw.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/winter-cardinal-trees-gift-tag-svg-r1y.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pink-sweaters-bows-mint-christmas-pattern-6an.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/oval-christmas-locket-print-and-cut-ico.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cozy-martini-print-and-cut-slippers-g3j.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/red-green-candy-cane-hearts-print-and-cut-mwr.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/sparkly-diamonds-on-turquoise-background-pattern-cjc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/unicorn-fonts-epm.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/framed-box-pna.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/holiday-house-3d-box-card-vir.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gobble-till-you-wobble-turkey-skl.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/moms-homemade-apple-pie-1xr.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-locket-with-chain-print-and-cut-mbh.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/string-of-christmas-lights-print-and-cut-kdw.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/interlocking-candy-cane-hearts-print-and-cut-0ry.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pine-sprigs-pink-bows-teal-seamless-pattern-gag.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/sparkly-diamonds-on-black-background-pattern-g6h.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/maple-lane-bundle-d-dqk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/maple-lane-bundle-e-b6m.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/maple-lane-bundle-f-4e4.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/maple-lane-emojis-bundle-a-rxb.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/maple-lane-emojis-bundle-b-tvk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/elegant-ribbon-bow-wrapped-ornament-party-bunting-ntg.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/festive-star-baubles-geometric-holiday-card-mjb.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/festive-geometric-flower-star-holiday-card-8cj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/fronds-and-berries-art-nouveau-gift-tag-l2b.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/fronds-and-flowers-art-nouveau-christmas-tree-card-8uv.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-bear-gift-favor-box-y2f.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/split-snowflake-bvu.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/split-snowflake-jbo.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/berry-christmas-stocking-hz3.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/folk-snowflakes-set-9yj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pretty-autumn-botanicals-1-tl5.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/flourish-christmas-tree-but.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/flourish-toy-soldier-4ea.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pretty-autumn-botanicals-2-upt.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/turkey-face-u4s.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-holly-lha.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/jingle-while-you-mingle-jv8.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/youve-got-this-two-ways-v1u.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/santa-baby-o45.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-thanksgiving-pumpkin-4qa.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pumpkin-duo-line-art-rwn.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pie-line-art-66g.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/family-thanksgiving-phrase-zdd.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/plaid-santa-claus-snowflakes-pattern-r6a.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/plaid-red-truck-pattern-8ja.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/santa-candy-cane-pink-pattern-ua6.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowflakes-mint-pattern-pcm.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/holiday-christmas-font-c11.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/i-can-totally-make-that-crafter-quote-dk1.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/funny-crafter-quote-fki.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/big-money-roll-birthday-gift-box-6gz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/big-money-roll-gift-box-pwi.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/big-money-roll-nativity-gift-box-2q2.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/big-money-roll-reindeer-gift-box-dht.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-wreath-1aa.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/icicles-silhouette-wpi.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/house-silhouette-gxz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-bear-face-cak.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/bird-on-branch-stencil-7zw.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/fa-la-la-svg-christmas-svg-wavy-text-zri.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-blessings-holiday-sentiment-3mj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/baby-mockup-script-font-5ux.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/morning-person-script-font-b6e.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/carnival-pattern-kqp.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/carnival-printable-pattern-ccx.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-thanksgiving-turkey-pzg.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-winter-snowman-face-j2d.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-silhouette-with-snowflakes-nlu.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-winter-snowman-xdc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-winter-snowman-with-snowflakes-04d.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/winter-snowman-bookmark-with-snowflakes-e1p.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-santa-claus-0a4.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/merry-christmas-reindeer-so2.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-outline-vbz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/graffic-font-x7t.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/travel-stories-font-vuy.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cooler-two-i8r.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/reindeer-silhouette-2sm.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-moose-layered-shadowbox-lx7.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-ecs.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-smiling-penguin-8wu.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-tree-ho-ho-ho-card-rti.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/winter-enchanting-script-font-xzd.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/sunshine-font-dr1.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/believe-in-the-magic-f6y.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/santa-night-font-dyg.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-pant-on-pot-with-cut-out-bells-iwe.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/senior-2026-with-graduation-cap-7if.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/quick-designer-font-ows.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/tumbling-mixed-leaves-stylized-half-drop-repeat-b57.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/tumbling-mixed-leaves-stylized-half-drop-repeat-fdj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/wives-of-the-party-wedding-xmu.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/watercolor-purple-flowers-axx.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/watercolor-purple-flowers-luf.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/measuring-cup-and-spoons-8jl.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-background-font-r69.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/silverware-set-hrt.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/glassware-set-xui.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowman-bookmark-svg-itk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/winter-cardinal-bookmark-svg-5za.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pine-tree-svg-christmas-tree-svg-snow-svg-7ma.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/bow-svg-coquette-svg-frame-svg-kvn.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/fragile-svg-label-svg-jvv.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/colorful-turkey-card-5-x-7-dyk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/north-pole-svg-mail-svg-christmas-svg-lwf.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/colorful-turkey-se8.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/simple-turkey-element-dvg.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/colorful-turkey-sticker-kim.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/hearts-intertwined-vop.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/tailgating-season-two-xim.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/party-kit-all-inclusive-1oj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/peppermint-swirl-stripe-hwb.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/tailgate-crew-racing-u1q.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/tailgating-is-great-one-r9c.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-word-tree-dih.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/scrooge-vibes-htj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/yuletide-vibes-wmm.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-joy-shadow-box-3d-christmas-shadowbox-4ag.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/whisker-wish-cute-handwritten-font-j4u.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-merry-shadow-box-3d-shadowbox-yl9.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/country-script-font-py1.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/calligraphy-script-font-qd7.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/sandy-font-stj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/holiday-font-39j.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-furniture-font-iga.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-times-font-ezs.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowflake-mountain-bookmark-svg-9mc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowflake-bookmark-svg-pqc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/girl-elf-face-s5h.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/goose-with-pink-bow-and-gingerbread-man-sticker-spn.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-birthday-with-wildflower-d5b.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-star-candy-cane-bonbon-box-jws.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-tree-bonbon-box-l6u.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/yes-please-wine-bwj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-gift-tags-to-from-printable-1k4.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/friends-thanksgiving-d6x.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gooley-eyed-turkey-ihq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowflake-medallions-kaa.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-anniversary-dse.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/is-it-christmas-yet-phrase-gzr.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gift-tags-ho-ho-ho-bma.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gift-tags-warm-wishes-8cq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-santa-hat-alphabet-letter-a-jze.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-santa-hat-alphabet-letter-b-v35.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-santa-hat-alphabet-letter-c-v9n.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pattern-pink-flower-52c.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pattern-elegant-flower-koi.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/watercolor-sunlight-sea-ombre-nzz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pattern-purple-flower-cn8.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gnome-elf-box-lxr.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gnome-nutcracker-box-tdq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gnome-gingerbread-box-xb0.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gnome-gift-bag-0xj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/winter-gnome-box-card-52m.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/life-is-better-with-a-cat-w16.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/the-mesa-slab-serif-font-jhr.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/laurel-leaves-sb6.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/leafy-branch-5jq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/peace-love-christmas-9yf.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/winter-cardinal-birds-with-snowflakes-ork.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/fa-la-la-singing-christmas-saying-mxs.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/drink-can-two-gio.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happyhanukkah-stencil-kry.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/senior-2026-graduation-ga1.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/graduation-cap-2026-h67.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/billion-font-54w.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/lightnight-script-font-s5k.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/merry-christmas-trees-i6u.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-svg-word-search-svg-wordsearch-svg-wz8.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/magnifying-glass-svg-detective-svg-zow.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/lovely-santa-script-font-gpk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowman-snowflakes-whirlwind-juu.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowman-snowflakes-whirlwind-ghn.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-design-with-gnome-holding-a-bell-iku.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christms-design-with-phrase-my-first-christmas-5hp.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-reindeer-artwork-zik.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/simple-lily-flower-artwork-dxx.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/simple-gerbera-flower-artwork-wqo.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-floral-greenery-country-blue-moz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-floral-greenery-2cx.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/what-is-yours-will-always-find-you-svg-j5y.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/you-are-enough-svg-cut-file-use.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/merry-christmas-njn.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/hello-winter-mtk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/holly-and-berries-flourish-pattern-k9j.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/swirly-turkey-tjv.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/thanksgiving-flourish-trio-hwt.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/mrs-claus-twp.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/nordic-star-sweater-pattern-6gf.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowman-2-shaped-card-dvz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowman-shaped-card-bda.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/girl-reindeer-ra9.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/stars-silhouette-vz7.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-wreath-y9m.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/boy-reindeer-l6y.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/girl-snowman-47o.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/boy-snowman-yvo.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/watercolor-beach-joi.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/watercolor-beach-ypf.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/holy-family-nativity-set-16-xk7.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/wise-men-nativity-set-26-xuz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/angels-nativity-set-36-pcc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/shepard-and-sheep-nativity-set-46-uha.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-holidays-with-trees-ui1.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/stable-animals-nativity-set-56-omt.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/o-holy-night-nativity-set-66-vvo.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/thankful-for-all-my-turkeys-design-9qh.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gnome-gift-card-holder-ath.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowman-gift-card-holder-35k.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cat-gift-card-holder-bs0.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/dog-gift-card-holder-wgg.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/penguin-gift-card-holder-haq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-holidays-jlk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/merry-christmas-h4s.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-holidays-4eq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/colored-pencil-red-ornament-sticker-vif.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/2026-svg-new-year-svg-2026-vibes-svg-uaq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/geometric-christmas-tree-yaj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-holidays-l3n.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/jingle-part-of-the-way-cjy.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-calories-font-trio-family-isz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-winter-melted-snowman-with-snowflakes-qcx.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cute-winter-snowman-with-scarf-4ys.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/senior-2026-with-graduation-cap-msi.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/graduation-cap-2026-iad.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/merry-christmas-elegant-round-ornament-design-uyi.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/kindly-script-font-x3n.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/ligture-font-deg.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/unique-font-dgd.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/leafy-turkey-aqb.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-tree-modern-wbh.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/funny-christmas-reindeer-7co.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/thanksgiving-pumpkin-circles-frame-glt.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cuties-script-font-vtd.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-bulb-ornament-with-tree-rnu.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/signature-font-u6e.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/big-money-roll-santa-gift-box-lwx.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/big-money-roll-snowman-gift-box-vr5.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-penguin-chocolate-holder-dws.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-polar-bear-chocolate-holder-vid.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-chocolate-holder-cm9.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gingerbread-man-with-holly-sticker-gwy.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-santa-claus-chocolate-holder-rvf.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/floral-happy-birthday-dbi.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/hello-christmas-i5z.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/a-squirrel-mopping-the-floor-bdk.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/a-dog-mopping-the-floor-p9t.html</t>
   </si>
 </sst>
 </file>
@@ -4666,302 +5572,302 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1318</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1319</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>1320</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>1321</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>1322</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>1323</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1324</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>1325</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>1326</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>1327</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>1328</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>1329</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>1330</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>1331</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>1332</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>1333</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>1334</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1335</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>1336</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>1337</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>1338</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>1339</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>1340</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>1341</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>1342</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>1343</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>1344</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>1345</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>1346</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>1347</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>1348</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>1349</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>1350</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>1351</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>1352</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>1353</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>1354</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>1355</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>1356</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>1357</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>1358</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>1359</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>1360</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>1361</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>1362</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>1363</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>1364</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>1365</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>1366</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>1367</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>1368</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>1369</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>1370</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>1371</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>1372</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>1373</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>1374</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>1375</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>1376</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>1377</v>
+        <v>1679</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7167" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5886" uniqueCount="1438">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -4159,910 +4159,184 @@
     <t>https://www.silhouettedesignstore.com/christmas-twinkles-on-red-bjq.html</t>
   </si>
   <si>
-    <t>https://www.silhouettedesignstore.com/pilgrim-raccoon-happy-thanksgiving-3dbox-card-1ie.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-twinkles-on-teal-twist-8ys.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pumpkin-checkered-pattern-e8t.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowy-holiday-town-printable-pattern-da5.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pumpkin-pie-slice-t2l.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/roast-turkey-fuv.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/seasons-greetings-wreath-ijm.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/turkey-time-phrase-in-turkey-silhouette-wnk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snow-covered-christmas-church-d4d.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snow-covered-christmas-church-hyg.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/door-hanger-birth-bow-light-box-axolotl-efx.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/door-hanger-birth-bow-light-box-cat-kvb.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/door-hanger-birth-bow-light-box-bear-wi9.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/her-royal-ness-birthday-card-with-crown-szk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/holly-branches-with-red-berries-ccc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-gingerbread-cookie-87y.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/floral-treble-clef-vd2.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/candy-cane-stripes-christmas-ornament-w72.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cozy-candle-on-a-plate-ukd.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/retro-handwritten-font-qsp.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/lighroom-script-font-i9m.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/malita-script-font-w00.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/squirrel-silhouette-with-fall-leaves-mni.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pumpkin-spice-latte-coffee-in-mug-qg6.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/santa-says-six-seven-xso.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-winter-penguin-d91.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-reindeer-with-snowflakes-pattern-kn0.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/o-come-let-us-adore-him-baby-jesus-1ka.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-reindeer-with-snowflake-and-stars-zgm.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-winter-snowman-with-scarf-9ht.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/end-bro-font-pcs.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/rindeya-script-font-ytz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/merry-christmas-chickens-uxh.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/rudolph-the-red-nose-reindeer-2ze.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/merry-cluckmas-c17.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-teddy-bear-xp7.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/have-yourself-a-merry-little-christmas-obk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/hot-dog-in-bun-one-a0n.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/hamburger-bun-fixings-one-dry.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/drink-can-one-cnv.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/wine-bottle-two-fog.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cooler-three-iqy.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/reindeer-with-mistletoe-6kc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/reindeer-with-mistletoe-qbc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/reindeer-with-mistletoe-skc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/reindeer-silhouette-5o3.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/reindeer-with-mistletoe-iqk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gingerbread-man-holiday-card-svg-cut-file-ijf.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/meet-me-here-mistletoe-door-corner-trim-28c.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/santa-ho-ho-ho-door-corner-trim-d8a.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowflake-gift-card-tag-svg-t2q.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/sparkly-diamonds-on-yellow-background-pattern-fsc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/winter-cardinal-trees-gift-card-tag-svg-p7y.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pink-sweaters-and-bows-christmas-seamless-pattern-3cw.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/winter-cardinal-trees-gift-tag-svg-r1y.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pink-sweaters-bows-mint-christmas-pattern-6an.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/oval-christmas-locket-print-and-cut-ico.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cozy-martini-print-and-cut-slippers-g3j.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/red-green-candy-cane-hearts-print-and-cut-mwr.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/sparkly-diamonds-on-turquoise-background-pattern-cjc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/unicorn-fonts-epm.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/framed-box-pna.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/holiday-house-3d-box-card-vir.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gobble-till-you-wobble-turkey-skl.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/moms-homemade-apple-pie-1xr.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-locket-with-chain-print-and-cut-mbh.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/string-of-christmas-lights-print-and-cut-kdw.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/interlocking-candy-cane-hearts-print-and-cut-0ry.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pine-sprigs-pink-bows-teal-seamless-pattern-gag.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/sparkly-diamonds-on-black-background-pattern-g6h.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/maple-lane-bundle-d-dqk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/maple-lane-bundle-e-b6m.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/maple-lane-bundle-f-4e4.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/maple-lane-emojis-bundle-a-rxb.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/maple-lane-emojis-bundle-b-tvk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/elegant-ribbon-bow-wrapped-ornament-party-bunting-ntg.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/festive-star-baubles-geometric-holiday-card-mjb.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/festive-geometric-flower-star-holiday-card-8cj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/fronds-and-berries-art-nouveau-gift-tag-l2b.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/fronds-and-flowers-art-nouveau-christmas-tree-card-8uv.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-bear-gift-favor-box-y2f.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/split-snowflake-bvu.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/split-snowflake-jbo.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/berry-christmas-stocking-hz3.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/folk-snowflakes-set-9yj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pretty-autumn-botanicals-1-tl5.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/flourish-christmas-tree-but.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/flourish-toy-soldier-4ea.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pretty-autumn-botanicals-2-upt.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/turkey-face-u4s.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-holly-lha.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/jingle-while-you-mingle-jv8.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/youve-got-this-two-ways-v1u.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/santa-baby-o45.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-thanksgiving-pumpkin-4qa.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pumpkin-duo-line-art-rwn.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pie-line-art-66g.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/family-thanksgiving-phrase-zdd.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/plaid-santa-claus-snowflakes-pattern-r6a.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/plaid-red-truck-pattern-8ja.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/santa-candy-cane-pink-pattern-ua6.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowflakes-mint-pattern-pcm.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/holiday-christmas-font-c11.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/i-can-totally-make-that-crafter-quote-dk1.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/funny-crafter-quote-fki.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/big-money-roll-birthday-gift-box-6gz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/big-money-roll-gift-box-pwi.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/big-money-roll-nativity-gift-box-2q2.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/big-money-roll-reindeer-gift-box-dht.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-wreath-1aa.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/icicles-silhouette-wpi.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/house-silhouette-gxz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-bear-face-cak.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/bird-on-branch-stencil-7zw.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/fa-la-la-svg-christmas-svg-wavy-text-zri.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-blessings-holiday-sentiment-3mj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/baby-mockup-script-font-5ux.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/morning-person-script-font-b6e.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/carnival-pattern-kqp.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/carnival-printable-pattern-ccx.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-thanksgiving-turkey-pzg.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-winter-snowman-face-j2d.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-reindeer-silhouette-with-snowflakes-nlu.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-winter-snowman-xdc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-winter-snowman-with-snowflakes-04d.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/winter-snowman-bookmark-with-snowflakes-e1p.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-santa-claus-0a4.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/merry-christmas-reindeer-so2.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-reindeer-outline-vbz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/graffic-font-x7t.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/travel-stories-font-vuy.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cooler-two-i8r.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/reindeer-silhouette-2sm.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-moose-layered-shadowbox-lx7.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-reindeer-ecs.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-smiling-penguin-8wu.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-tree-ho-ho-ho-card-rti.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/winter-enchanting-script-font-xzd.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/sunshine-font-dr1.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/believe-in-the-magic-f6y.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/santa-night-font-dyg.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-pant-on-pot-with-cut-out-bells-iwe.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/senior-2026-with-graduation-cap-7if.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/quick-designer-font-ows.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/tumbling-mixed-leaves-stylized-half-drop-repeat-b57.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/tumbling-mixed-leaves-stylized-half-drop-repeat-fdj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/wives-of-the-party-wedding-xmu.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/watercolor-purple-flowers-axx.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/watercolor-purple-flowers-luf.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/measuring-cup-and-spoons-8jl.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-background-font-r69.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/silverware-set-hrt.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/glassware-set-xui.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowman-bookmark-svg-itk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/winter-cardinal-bookmark-svg-5za.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pine-tree-svg-christmas-tree-svg-snow-svg-7ma.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/bow-svg-coquette-svg-frame-svg-kvn.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/fragile-svg-label-svg-jvv.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/colorful-turkey-card-5-x-7-dyk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/north-pole-svg-mail-svg-christmas-svg-lwf.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/colorful-turkey-se8.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/simple-turkey-element-dvg.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/colorful-turkey-sticker-kim.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/hearts-intertwined-vop.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/tailgating-season-two-xim.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/party-kit-all-inclusive-1oj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/peppermint-swirl-stripe-hwb.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/tailgate-crew-racing-u1q.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/tailgating-is-great-one-r9c.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-word-tree-dih.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/scrooge-vibes-htj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/yuletide-vibes-wmm.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-joy-shadow-box-3d-christmas-shadowbox-4ag.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/whisker-wish-cute-handwritten-font-j4u.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-merry-shadow-box-3d-shadowbox-yl9.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/country-script-font-py1.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/calligraphy-script-font-qd7.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/sandy-font-stj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/holiday-font-39j.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-furniture-font-iga.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-times-font-ezs.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowflake-mountain-bookmark-svg-9mc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowflake-bookmark-svg-pqc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/girl-elf-face-s5h.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/goose-with-pink-bow-and-gingerbread-man-sticker-spn.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-birthday-with-wildflower-d5b.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-star-candy-cane-bonbon-box-jws.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-tree-bonbon-box-l6u.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/yes-please-wine-bwj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-gift-tags-to-from-printable-1k4.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/friends-thanksgiving-d6x.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gooley-eyed-turkey-ihq.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowflake-medallions-kaa.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-anniversary-dse.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/is-it-christmas-yet-phrase-gzr.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gift-tags-ho-ho-ho-bma.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gift-tags-warm-wishes-8cq.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-santa-hat-alphabet-letter-a-jze.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-santa-hat-alphabet-letter-b-v35.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-santa-hat-alphabet-letter-c-v9n.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pattern-pink-flower-52c.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pattern-elegant-flower-koi.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/watercolor-sunlight-sea-ombre-nzz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pattern-purple-flower-cn8.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gnome-elf-box-lxr.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gnome-nutcracker-box-tdq.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gnome-gingerbread-box-xb0.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gnome-gift-bag-0xj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/winter-gnome-box-card-52m.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/life-is-better-with-a-cat-w16.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/the-mesa-slab-serif-font-jhr.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/laurel-leaves-sb6.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/leafy-branch-5jq.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/peace-love-christmas-9yf.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/winter-cardinal-birds-with-snowflakes-ork.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/fa-la-la-singing-christmas-saying-mxs.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/drink-can-two-gio.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happyhanukkah-stencil-kry.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/senior-2026-graduation-ga1.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/graduation-cap-2026-h67.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/billion-font-54w.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/lightnight-script-font-s5k.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/merry-christmas-trees-i6u.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-svg-word-search-svg-wordsearch-svg-wz8.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/magnifying-glass-svg-detective-svg-zow.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/lovely-santa-script-font-gpk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowman-snowflakes-whirlwind-juu.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowman-snowflakes-whirlwind-ghn.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-design-with-gnome-holding-a-bell-iku.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christms-design-with-phrase-my-first-christmas-5hp.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-reindeer-artwork-zik.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/simple-lily-flower-artwork-dxx.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/simple-gerbera-flower-artwork-wqo.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-floral-greenery-country-blue-moz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-floral-greenery-2cx.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/what-is-yours-will-always-find-you-svg-j5y.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/you-are-enough-svg-cut-file-use.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/merry-christmas-njn.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/hello-winter-mtk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/holly-and-berries-flourish-pattern-k9j.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/swirly-turkey-tjv.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/thanksgiving-flourish-trio-hwt.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/mrs-claus-twp.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/nordic-star-sweater-pattern-6gf.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowman-2-shaped-card-dvz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowman-shaped-card-bda.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/girl-reindeer-ra9.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/stars-silhouette-vz7.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-wreath-y9m.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/boy-reindeer-l6y.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/girl-snowman-47o.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/boy-snowman-yvo.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/watercolor-beach-joi.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/watercolor-beach-ypf.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/holy-family-nativity-set-16-xk7.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/wise-men-nativity-set-26-xuz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/angels-nativity-set-36-pcc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/shepard-and-sheep-nativity-set-46-uha.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-holidays-with-trees-ui1.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/stable-animals-nativity-set-56-omt.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/o-holy-night-nativity-set-66-vvo.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/thankful-for-all-my-turkeys-design-9qh.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gnome-gift-card-holder-ath.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowman-gift-card-holder-35k.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cat-gift-card-holder-bs0.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/dog-gift-card-holder-wgg.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/penguin-gift-card-holder-haq.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-holidays-jlk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/merry-christmas-h4s.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-holidays-4eq.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/colored-pencil-red-ornament-sticker-vif.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/2026-svg-new-year-svg-2026-vibes-svg-uaq.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/geometric-christmas-tree-yaj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-holidays-l3n.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/jingle-part-of-the-way-cjy.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-calories-font-trio-family-isz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-winter-melted-snowman-with-snowflakes-qcx.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cute-winter-snowman-with-scarf-4ys.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/senior-2026-with-graduation-cap-msi.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/graduation-cap-2026-iad.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/merry-christmas-elegant-round-ornament-design-uyi.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/kindly-script-font-x3n.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/ligture-font-deg.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/unique-font-dgd.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/leafy-turkey-aqb.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-tree-modern-wbh.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/funny-christmas-reindeer-7co.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/thanksgiving-pumpkin-circles-frame-glt.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cuties-script-font-vtd.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-bulb-ornament-with-tree-rnu.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/signature-font-u6e.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/big-money-roll-santa-gift-box-lwx.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/big-money-roll-snowman-gift-box-vr5.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-penguin-chocolate-holder-dws.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-polar-bear-chocolate-holder-vid.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-reindeer-chocolate-holder-cm9.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gingerbread-man-with-holly-sticker-gwy.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-santa-claus-chocolate-holder-rvf.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/floral-happy-birthday-dbi.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/hello-christmas-i5z.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/a-squirrel-mopping-the-floor-bdk.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/a-dog-mopping-the-floor-p9t.html</t>
+    <t>https://www.silhouettedesignstore.com/christmas-gnome-with-present-of1.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/thanksgiving-turkey-place-card-zxh.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-gnome-trio-sn0.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/thanksgiving-maple-leaf-place-card-pzo.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/jolly-christmas-gnome-zli.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/elf-on-duty-vxo.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/elf-sized-cut-file-rma.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/santa-christmas-card-postage-stamp-tyv.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-holidays-ope.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/merry-christmas-yqd.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/retro-chef-lady-rm8.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/fairy-garden-3d-shadowbox-svz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-baubles-card-0qy.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/joy-holy-family-vinyl-yuc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-holidays-lantern-with-rounded-corners-kge.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/hohoho-snowman-stacked-o-christmas-word-art-gqn.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/baby-birthday-font-y4q.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/clara-pop-up-card-zlh.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowman-gift-box-srd.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-tree-tuxedo-card-jma.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/santa-tuxedo-card-lle.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/elf-latte-box-ggr.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowball-silhouette-r44.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowman-face-wye.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/a7-christmas-cat-card-z6h.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/snowman-pie-box-q7c.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/new-font-playful-rounded-letters-o8s.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/memories-font-playful-handwritten-font-2mj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-treelines-vhz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cookies-and-penguinlines-l07.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gingerbread-couplelines-0fp.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-trees-pattern-nfu.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-galore-large-images-seamless-pattern-rib.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/abstract-pattern-upp.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pattern-christmas-tree-qy2.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-cats-white-seamless-pattern-k8a.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/santa-hats-on-pink-w0v.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/blackstyle-7m3.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/earning-script-font-ch3.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/beach-script-font-dsy.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-christmas-hxt.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gingerbread-cookies-snowflake-mitten-candle-woman-mpv.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/house-silhouette-nw6.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-wreath-mini-lantern-svg-cut-file-l5i.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-star-mini-lantern-svg-cut-file-47c.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/yule-log-mini-lantern-svg-cut-file-jzs.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/evil-eyes-on-pink-pattern-wgd.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pink-glitter-disco-balls-pattern-sap.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/lemons-and-daisies-on-muted-green-pattern-aoi.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pink-dots-on-red-pattern-3dt.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pink-red-cowboy-rodeo-pattern-t11.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-alphabet-letter-x-with-antlers-uyh.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-alphabet-letter-y-with-antlers-clt.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-alphabet-letter-z-with-antlers-4ss.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/mini-panettone-box-fks.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/bionce-brush-n1z.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/funny-sarcastic-christmas-card-sentiment-xnz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/espresso-font-e3o.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/wishing-you-a-peaceful-christmas-sentiment-c56.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-tree-bottom-fold-card-s4y.html</t>
   </si>
 </sst>
 </file>
@@ -5572,302 +4846,302 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1620</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1621</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>1622</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>1623</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>1624</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>1625</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1626</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>1627</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>1628</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>1629</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>1630</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>1631</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>1632</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>1633</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>1634</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>1635</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>1636</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1637</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>1638</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>1639</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>1640</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>1641</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>1642</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>1643</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>1644</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>1645</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>1646</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>1647</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>1648</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>1649</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>1650</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>1651</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>1652</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>1653</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>1658</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>1659</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>1660</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>1661</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>1662</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>1654</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>1655</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>1656</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>1657</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>1663</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>1664</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>1665</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>1666</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>1667</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>1668</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>1669</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>1670</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>1671</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>1672</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>1673</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>1674</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>1675</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>1676</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>1677</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>1678</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>1679</v>
+        <v>1437</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5886" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6313" uniqueCount="1435">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -4159,184 +4159,175 @@
     <t>https://www.silhouettedesignstore.com/christmas-twinkles-on-red-bjq.html</t>
   </si>
   <si>
-    <t>https://www.silhouettedesignstore.com/christmas-gnome-with-present-of1.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/thanksgiving-turkey-place-card-zxh.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-gnome-trio-sn0.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/thanksgiving-maple-leaf-place-card-pzo.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/jolly-christmas-gnome-zli.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/elf-on-duty-vxo.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/elf-sized-cut-file-rma.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/santa-christmas-card-postage-stamp-tyv.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-holidays-ope.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/merry-christmas-yqd.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/retro-chef-lady-rm8.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/fairy-garden-3d-shadowbox-svz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-baubles-card-0qy.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/joy-holy-family-vinyl-yuc.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-holidays-lantern-with-rounded-corners-kge.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/hohoho-snowman-stacked-o-christmas-word-art-gqn.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/baby-birthday-font-y4q.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/clara-pop-up-card-zlh.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowman-gift-box-srd.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-tree-tuxedo-card-jma.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/santa-tuxedo-card-lle.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/elf-latte-box-ggr.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowball-silhouette-r44.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowman-face-wye.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/a7-christmas-cat-card-z6h.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/snowman-pie-box-q7c.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/new-font-playful-rounded-letters-o8s.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/memories-font-playful-handwritten-font-2mj.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-treelines-vhz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/cookies-and-penguinlines-l07.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gingerbread-couplelines-0fp.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-trees-pattern-nfu.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-galore-large-images-seamless-pattern-rib.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/abstract-pattern-upp.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pattern-christmas-tree-qy2.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-cats-white-seamless-pattern-k8a.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/santa-hats-on-pink-w0v.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/blackstyle-7m3.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/earning-script-font-ch3.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/beach-script-font-dsy.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/happy-christmas-hxt.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/gingerbread-cookies-snowflake-mitten-candle-woman-mpv.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/house-silhouette-nw6.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-wreath-mini-lantern-svg-cut-file-l5i.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-star-mini-lantern-svg-cut-file-47c.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/yule-log-mini-lantern-svg-cut-file-jzs.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/evil-eyes-on-pink-pattern-wgd.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pink-glitter-disco-balls-pattern-sap.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/lemons-and-daisies-on-muted-green-pattern-aoi.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pink-dots-on-red-pattern-3dt.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/pink-red-cowboy-rodeo-pattern-t11.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-reindeer-alphabet-letter-x-with-antlers-uyh.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-reindeer-alphabet-letter-y-with-antlers-clt.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-reindeer-alphabet-letter-z-with-antlers-4ss.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/mini-panettone-box-fks.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/bionce-brush-n1z.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/funny-sarcastic-christmas-card-sentiment-xnz.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/espresso-font-e3o.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/wishing-you-a-peaceful-christmas-sentiment-c56.html</t>
-  </si>
-  <si>
-    <t>https://www.silhouettedesignstore.com/christmas-tree-bottom-fold-card-s4y.html</t>
+    <t>https://www.silhouettedesignstore.com/floral-monogram-letter-h-printable-sticker-waz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/purple-outline-flower-pattern-6ub.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/purple-petal-flower-pattern-zer.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/psalm-1081-steadfast-heart-kqw.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/colossians-316-gratitude-song-7su.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/matcha-font-9r9.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-snowflakes-dots-foil-style-pattern-zod.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-stripes-green-red-gold-pattern-tzq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-tree-foil-style-pattern-otw.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/country-font-bpj.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/corgi-dog-pattern-twc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/i-want-to-hold-your-ham-dxt.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/happy-face-guy.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/penguin-face-g7v.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/waddling-in-a-winter-wonderland-nl9.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/feeling-jolly-holiday-slogan-ten.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/3d-j96.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/3d-paper-fly-agaric-house-lamp-tkc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/angel-of-the-nativity-scene-k6w.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/angel-of-the-nativity-scene-yly.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-face-8xy.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/believe-christmas-ornament-shaped-banner-ezu.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/gnome-christmas-tree-box-print-and-cut-w9z.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/nativity-tree-box-print-and-cut-4wz.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-string-lights-layered-garland-cut-file-i8u.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cbda-be-jolly-vinyl-dfq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/calico-christmas-cat-with-santa-hat-print-cut-1jw.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/pillow-kraft-reindeer-print-and-cut-bsy.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cbda-lets-get-christmas-lights-tcf.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-cats-green-dots-seamless-pattern-xv5.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/harvest-witch-card-jmp.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/tall-grape-lantern-frame-wha.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/grape-short-lantern-k1n.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/simple-snow-flower-artwork-fba.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/simple-carnation-flower-artwork-b42.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/kawaii-penguin-on-christmas-train-outline-svg-1yv.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-hat-plaid-monogram-letter-p-printable-lye.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/floral-monogram-letter-i-printable-sticker-diq.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/festive-snowflake-letter-h-with-ribbon-3my.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-letter-a-candy-cane-print-vmc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-reindeer-letter-b-candy-cane-print-hn3.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/brave-font-wpm.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/erizon-font-y9z.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/bunny-ears-pattern-bgx.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/black-label-script-font-mlc.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/seasons-greetings-christmas-card-sentiment-g2i.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/funny-sarcastic-christmas-greeting-card-sentiment-mnh.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/valentines-teddy-sketch-valentines-sketch-jdx.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-tree-decoration-gtp.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-bell-vtg.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-ball-decoration-4lx.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-ball-decoration-a4n.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/christmas-bells-pink-reds-qls.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/cold-hands-warm-heart-lt-orange-w2z.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/home-for-the-holidays-lba.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/have-yourself-a-merry-little-christmas-7ue.html</t>
+  </si>
+  <si>
+    <t>https://www.silhouettedesignstore.com/night-carnival-script-font-agk.html</t>
   </si>
 </sst>
 </file>
@@ -4861,287 +4852,287 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>1381</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>1382</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>1383</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
   </sheetData>
